--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3960.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3960.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218513607089791</v>
+        <v>1.060397028923035</v>
       </c>
       <c r="B1">
-        <v>2.301579309313166</v>
+        <v>1.928446292877197</v>
       </c>
       <c r="C1">
-        <v>6.450678272642737</v>
+        <v>3.117414951324463</v>
       </c>
       <c r="D1">
-        <v>3.358638371819143</v>
+        <v>2.107598066329956</v>
       </c>
       <c r="E1">
-        <v>1.392822812522173</v>
+        <v>0.6939291954040527</v>
       </c>
     </row>
   </sheetData>
